--- a/individual_case_outputs/avey/492.xlsx
+++ b/individual_case_outputs/avey/492.xlsx
@@ -861,7 +861,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>diverticulosis</t>
+          <t>lower gastrointestinal bleeding</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
